--- a/AMZ.001/Data/Input/Challenge RPA - NI - InOut - Template.xlsx
+++ b/AMZ.001/Data/Input/Challenge RPA - NI - InOut - Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CarlosM\Documents\UiPath\AMZ.001\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CarlosM\Desktop\ChallengeEDSA\AMZ.001\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2641F8-1D5F-4CE5-A16C-A2AEA6F11981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BC283B-0DCA-420C-B3B4-CAA5A14730F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{8D7E73B9-D837-4162-B905-89A6B4D1E55B}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="A1:XFD1048576"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +504,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
